--- a/Test_words.xlsx
+++ b/Test_words.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p00688\Documents\PsychoPy\IAT 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4FAC9C-806B-43E6-BD1B-4329C77F83BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11235066-3326-4360-9FF2-F07E8C71F970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
